--- a/Data/粉絲數/threads.xlsx
+++ b/Data/粉絲數/threads.xlsx
@@ -5,34 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\專案\新增資料夾\新增資料夾\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\Project\Designer-Toy-Market-Data-Analysis\Data\粉絲數\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE7CD17-3EDF-4567-B253-A62576764DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D69FA00-86FA-4A4B-82B5-0D5CA9B282FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="總表" sheetId="1" r:id="rId1"/>
+    <sheet name="Google Threads" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
-  <si>
-    <t>網站</t>
-  </si>
-  <si>
-    <t>搜尋筆數</t>
-  </si>
-  <si>
-    <t>年份</t>
-  </si>
-  <si>
-    <t>搜尋</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>threads.com</t>
   </si>
@@ -53,23 +41,15 @@
   </si>
   <si>
     <t>泡泡瑪特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -92,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -100,30 +80,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -428,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -441,273 +403,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>7720</v>
       </c>
       <c r="C2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>7720</v>
+        <v>155000</v>
       </c>
       <c r="C3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>155000</v>
-      </c>
       <c r="C4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6540</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>6540</v>
+        <v>128000</v>
       </c>
       <c r="C6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>128000</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>3310</v>
       </c>
       <c r="C9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>3310</v>
-      </c>
       <c r="C10">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>6830</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>2022</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>129000</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
-      </c>
-      <c r="B12">
-        <v>6830</v>
-      </c>
-      <c r="C12">
-        <v>2023</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>129000</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2080</v>
       </c>
       <c r="C15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>2080</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>7570</v>
       </c>
       <c r="C17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>7570</v>
+        <v>155000</v>
       </c>
       <c r="C18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>155000</v>
-      </c>
-      <c r="C19">
-        <v>2024</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>